--- a/data-raw/meta_results.xlsx
+++ b/data-raw/meta_results.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelabers/Desktop/VIP/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB49DCA7-5350-BC46-A85C-0ED96201823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD21AB64-023F-064C-8587-38104FD5C968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27780" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3820" windowWidth="30240" windowHeight="13980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="core" sheetId="1" r:id="rId1"/>
     <sheet name="sens_low_rob" sheetId="2" r:id="rId2"/>
     <sheet name="sens_low_rob_us" sheetId="3" r:id="rId3"/>
+    <sheet name="meta_analysis_toc" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">meta_analysis_toc!$A$1:$F$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">sens_low_rob_us!$A$1:$AT$8</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="273">
   <si>
     <t>virus</t>
   </si>
@@ -802,25 +804,81 @@
   </si>
   <si>
     <t>56 (55-57)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>All adults</t>
+  </si>
+  <si>
+    <t>Older adults</t>
+  </si>
+  <si>
+    <t>Younger adults</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Infants/Children</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Infants</t>
+  </si>
+  <si>
+    <t>Low ROB analysis</t>
+  </si>
+  <si>
+    <t>Study design</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>population_original</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -844,18 +902,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6BFF757E-F6A0-6148-A88B-1E251A4DBDCA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1151,16 +1215,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1368,7 +1432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1576,7 +1640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1680,7 +1744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1784,7 +1848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1888,7 +1952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1992,7 +2056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2096,7 +2160,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2200,7 +2264,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2304,7 +2368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -2408,7 +2472,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2512,7 +2576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2616,7 +2680,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -2720,7 +2784,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -2824,7 +2888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -2928,7 +2992,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -3032,7 +3096,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -3136,7 +3200,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -3255,12 +3319,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3464,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3540,7 +3604,7 @@
         <v>36.5741144414079</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3680,7 +3744,7 @@
         <v>57.049661977369198</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3820,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3960,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -4100,7 +4164,7 @@
         <v>24.8912453125049</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -4240,7 +4304,7 @@
         <v>80.441775046648502</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -4380,7 +4444,7 @@
         <v>60.412343140207298</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -4520,7 +4584,7 @@
         <v>73.6640530666931</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -4660,7 +4724,7 @@
         <v>75.483588753097806</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -4800,7 +4864,7 @@
         <v>77.150958406180393</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -4940,7 +5004,7 @@
         <v>90.502433465514599</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -5080,7 +5144,7 @@
         <v>80.8448209006187</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -5220,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -5360,7 +5424,7 @@
         <v>56.459615892613201</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -5500,7 +5564,7 @@
         <v>88.4208403316849</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -5640,7 +5704,7 @@
         <v>6.4032303016400096</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -5798,9 +5862,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5940,7 +6004,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6080,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -6220,7 +6284,7 @@
         <v>80.441775046648502</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -6360,7 +6424,7 @@
         <v>60.412343140207298</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -6500,7 +6564,7 @@
         <v>73.6640530666931</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -6640,7 +6704,7 @@
         <v>90.502433465514599</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -6780,7 +6844,7 @@
         <v>80.8448209006187</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -6925,4 +6989,429 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F36D240-6AA4-DD4A-A473-B3B4F83FC08B}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="3"/>
+    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F45" xr:uid="{D53A38EB-5190-D64D-AFF3-20FB37FEE8A2}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>